--- a/modelos/OBAACR4421125/OBAACR4421125_Sell Out_metricas.xlsx
+++ b/modelos/OBAACR4421125/OBAACR4421125_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,81 +473,61 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45033</v>
+        <v>45040</v>
       </c>
       <c r="B2" t="n">
-        <v>124.0847945717203</v>
+        <v>142.7142280833622</v>
       </c>
       <c r="C2" t="n">
-        <v>61.84987801851942</v>
+        <v>79.16154516259292</v>
       </c>
       <c r="D2" t="n">
-        <v>185.3680256268781</v>
+        <v>212.1484925621298</v>
       </c>
       <c r="E2" t="n">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45031</v>
+        <v>45038</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45040</v>
+        <v>45048</v>
       </c>
       <c r="B3" t="n">
-        <v>131.854755622596</v>
+        <v>109.0045936667208</v>
       </c>
       <c r="C3" t="n">
-        <v>66.87599600898371</v>
+        <v>45.93043885000561</v>
       </c>
       <c r="D3" t="n">
-        <v>193.1020340690243</v>
+        <v>175.847183548362</v>
       </c>
       <c r="E3" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45038</v>
+        <v>45045</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45048</v>
+        <v>45059</v>
       </c>
       <c r="B4" t="n">
-        <v>108.9609407107338</v>
+        <v>91.70713623048687</v>
       </c>
       <c r="C4" t="n">
-        <v>47.29606798335553</v>
+        <v>25.40102242807242</v>
       </c>
       <c r="D4" t="n">
-        <v>168.7374364014017</v>
+        <v>156.7352660893887</v>
       </c>
       <c r="E4" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45045</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45059</v>
-      </c>
-      <c r="B5" t="n">
-        <v>91.26254590944043</v>
-      </c>
-      <c r="C5" t="n">
-        <v>31.80086638433466</v>
-      </c>
-      <c r="D5" t="n">
-        <v>151.7075162834352</v>
-      </c>
-      <c r="E5" t="n">
-        <v>74</v>
-      </c>
-      <c r="F5" s="2" t="n">
         <v>45052</v>
       </c>
     </row>
@@ -617,22 +597,22 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1982.488984108139</v>
+        <v>2674.361386258005</v>
       </c>
       <c r="C2" t="n">
-        <v>44.52515001780611</v>
+        <v>51.71422808336217</v>
       </c>
       <c r="D2" t="n">
-        <v>44.38498052543782</v>
+        <v>51.71422808336217</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3637650671179388</v>
+        <v>0.5682882206962876</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3637650671179388</v>
+        <v>0.5682882206962876</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3451539202118113</v>
+        <v>0.4425424032371407</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -643,22 +623,22 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>726.8923240077037</v>
+        <v>729.2480791046961</v>
       </c>
       <c r="C3" t="n">
-        <v>26.96094071073381</v>
+        <v>27.00459366672078</v>
       </c>
       <c r="D3" t="n">
-        <v>26.96094071073381</v>
+        <v>27.00459366672078</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3287919598869977</v>
+        <v>0.32932431300879</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3287919598869977</v>
+        <v>0.32932431300879</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2823712599067475</v>
+        <v>0.2827638136686956</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -669,22 +649,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>297.9954912755387</v>
+        <v>313.5426734850207</v>
       </c>
       <c r="C4" t="n">
-        <v>17.26254590944043</v>
+        <v>17.70713623048687</v>
       </c>
       <c r="D4" t="n">
-        <v>17.26254590944043</v>
+        <v>17.70713623048687</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2332776474248707</v>
+        <v>0.239285624736309</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2332776474248707</v>
+        <v>0.239285624736309</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2089105648765675</v>
+        <v>0.2137160370191601</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>

--- a/modelos/OBAACR4421125/OBAACR4421125_Sell Out_metricas.xlsx
+++ b/modelos/OBAACR4421125/OBAACR4421125_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,61 +473,81 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45040</v>
+        <v>45033</v>
       </c>
       <c r="B2" t="n">
-        <v>142.7142280833622</v>
+        <v>124.0847945717035</v>
       </c>
       <c r="C2" t="n">
-        <v>79.16154516259292</v>
+        <v>57.32130918857795</v>
       </c>
       <c r="D2" t="n">
-        <v>212.1484925621298</v>
+        <v>187.4232150174962</v>
       </c>
       <c r="E2" t="n">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45038</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45048</v>
+        <v>45040</v>
       </c>
       <c r="B3" t="n">
-        <v>109.0045936667208</v>
+        <v>131.854755489119</v>
       </c>
       <c r="C3" t="n">
-        <v>45.93043885000561</v>
+        <v>68.94434910948715</v>
       </c>
       <c r="D3" t="n">
-        <v>175.847183548362</v>
+        <v>189.6899901896539</v>
       </c>
       <c r="E3" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45045</v>
+        <v>45038</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>45048</v>
+      </c>
+      <c r="B4" t="n">
+        <v>108.9609407106312</v>
+      </c>
+      <c r="C4" t="n">
+        <v>44.32547553610658</v>
+      </c>
+      <c r="D4" t="n">
+        <v>166.9678846438547</v>
+      </c>
+      <c r="E4" t="n">
+        <v>82</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>45045</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>45059</v>
       </c>
-      <c r="B4" t="n">
-        <v>91.70713623048687</v>
-      </c>
-      <c r="C4" t="n">
-        <v>25.40102242807242</v>
-      </c>
-      <c r="D4" t="n">
-        <v>156.7352660893887</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="B5" t="n">
+        <v>91.26254590944257</v>
+      </c>
+      <c r="C5" t="n">
+        <v>35.42306738326734</v>
+      </c>
+      <c r="D5" t="n">
+        <v>150.3646378452222</v>
+      </c>
+      <c r="E5" t="n">
         <v>74</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F5" s="2" t="n">
         <v>45052</v>
       </c>
     </row>
@@ -597,22 +617,22 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2674.361386258005</v>
+        <v>1982.488978655777</v>
       </c>
       <c r="C2" t="n">
-        <v>51.71422808336217</v>
+        <v>44.52514995657821</v>
       </c>
       <c r="D2" t="n">
-        <v>51.71422808336217</v>
+        <v>44.38498045870775</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5682882206962876</v>
+        <v>0.3637650663845978</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5682882206962876</v>
+        <v>0.3637650663845978</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4425424032371407</v>
+        <v>0.3451539197227366</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -623,22 +643,22 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>729.2480791046961</v>
+        <v>726.8923240021696</v>
       </c>
       <c r="C3" t="n">
-        <v>27.00459366672078</v>
+        <v>26.96094071063118</v>
       </c>
       <c r="D3" t="n">
-        <v>27.00459366672078</v>
+        <v>26.96094071063118</v>
       </c>
       <c r="E3" t="n">
-        <v>0.32932431300879</v>
+        <v>0.3287919598857461</v>
       </c>
       <c r="F3" t="n">
-        <v>0.32932431300879</v>
+        <v>0.3287919598857461</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2827638136686956</v>
+        <v>0.2823712599058244</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -649,22 +669,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>313.5426734850207</v>
+        <v>297.9954912756122</v>
       </c>
       <c r="C4" t="n">
-        <v>17.70713623048687</v>
+        <v>17.26254590944257</v>
       </c>
       <c r="D4" t="n">
-        <v>17.70713623048687</v>
+        <v>17.26254590944257</v>
       </c>
       <c r="E4" t="n">
-        <v>0.239285624736309</v>
+        <v>0.2332776474248995</v>
       </c>
       <c r="F4" t="n">
-        <v>0.239285624736309</v>
+        <v>0.2332776474248995</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2137160370191601</v>
+        <v>0.2089105648765906</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
